--- a/PNR Raw Data/PNR_ENV_2022.xlsx
+++ b/PNR Raw Data/PNR_ENV_2022.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A58FFDF3-DFA9-4F47-8168-BBA5BBFEC40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CA8C2220-5D77-4368-A0A9-BCAE7FCA22D1}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{CA8C2220-5D77-4368-A0A9-BCAE7FCA22D1}"/>
   </bookViews>
   <sheets>
     <sheet name="DENSI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SOIL_MOISTURE" sheetId="3" r:id="rId3"/>
     <sheet name="COLLECTION_NOTES" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,16 +41,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="53">
   <si>
+    <t>GPS</t>
+  </si>
+  <si>
     <t>Treatment</t>
   </si>
   <si>
     <t>Plot</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>PNR_Code</t>
   </si>
   <si>
     <t>Densi-N</t>
@@ -69,10 +71,16 @@
     <t>Densi_Date</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>June 1 2022</t>
   </si>
   <si>
     <t>June 2 2022</t>
+  </si>
+  <si>
+    <t>Site</t>
   </si>
   <si>
     <t>Veg1</t>
@@ -141,13 +149,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Site</t>
+    <t>July 13 2022</t>
   </si>
   <si>
-    <t>PNR_Code</t>
+    <t>Aug 11 2022</t>
   </si>
   <si>
-    <t>SoilMoisture_Date</t>
+    <t>Sep 6 2022</t>
   </si>
   <si>
     <t>%MOISTURE1</t>
@@ -159,37 +167,31 @@
     <t>%MOISTURE3</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>%Moisture_Avg</t>
+  </si>
+  <si>
+    <t>SoilMoisture_Date</t>
   </si>
   <si>
     <t>Traps_Dumped</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Collection_Date</t>
+  </si>
+  <si>
+    <t>barrier down</t>
   </si>
   <si>
     <t>NO SAMPLE</t>
   </si>
   <si>
-    <t>barrier down</t>
-  </si>
-  <si>
-    <t>%Moisture_Avg</t>
-  </si>
-  <si>
     <t>barrier popping up halfway</t>
   </si>
   <si>
-    <t>July 13 2022</t>
-  </si>
-  <si>
-    <t>Aug 11 2022</t>
-  </si>
-  <si>
     <t>horsehair worm in trap!</t>
-  </si>
-  <si>
-    <t>Sep 6 2022</t>
   </si>
   <si>
     <t>mygalomorph!</t>
@@ -205,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,9 +301,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +341,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -445,7 +447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,29 +603,29 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -644,9 +646,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>41</v>
@@ -671,10 +673,10 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -701,10 +703,10 @@
         <v>6.5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -731,12 +733,12 @@
         <v>5.98</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>44</v>
@@ -761,12 +763,12 @@
         <v>8.06</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>45</v>
@@ -791,10 +793,10 @@
         <v>9.620000000000001</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,10 +823,10 @@
         <v>8.58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,12 +853,12 @@
         <v>12.48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>48</v>
@@ -881,10 +883,10 @@
         <v>9.36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,12 +913,12 @@
         <v>73.06</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
@@ -941,10 +943,10 @@
         <v>8.32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -971,12 +973,12 @@
         <v>13.52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>52</v>
@@ -1001,10 +1003,10 @@
         <v>8.84</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,12 +1033,12 @@
         <v>6.24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>54</v>
@@ -1061,10 +1063,10 @@
         <v>4.68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,12 +1093,12 @@
         <v>8.06</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>56</v>
@@ -1121,10 +1123,10 @@
         <v>10.92</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1151,12 +1153,12 @@
         <v>15.34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>58</v>
@@ -1181,10 +1183,10 @@
         <v>5.98</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1211,12 +1213,12 @@
         <v>7.28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>60</v>
@@ -1241,10 +1243,10 @@
         <v>6.76</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1271,12 +1273,12 @@
         <v>8.32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>62</v>
@@ -1301,10 +1303,10 @@
         <v>5.98</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1331,12 +1333,12 @@
         <v>7.28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>64</v>
@@ -1361,7 +1363,7 @@
         <v>5.98</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1378,108 +1380,108 @@
       <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="9.109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="9.109375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.88671875" style="1"/>
-    <col min="21" max="21" width="9.109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="8.88671875" style="6"/>
-    <col min="24" max="24" width="10.33203125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="8.85546875" style="6"/>
+    <col min="24" max="24" width="10.28515625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>41</v>
@@ -1558,10 +1560,10 @@
         <v>0.2</v>
       </c>
       <c r="Y2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1642,10 +1644,10 @@
         <v>0.3</v>
       </c>
       <c r="Y3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1726,12 +1728,12 @@
         <v>0.375</v>
       </c>
       <c r="Y4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>44</v>
@@ -1810,12 +1812,12 @@
         <v>0.375</v>
       </c>
       <c r="Y5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>45</v>
@@ -1894,10 +1896,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="Y6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1978,10 +1980,10 @@
         <v>0.5</v>
       </c>
       <c r="Y7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2062,12 +2064,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Y8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>48</v>
@@ -2146,10 +2148,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="Y9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2230,12 +2232,12 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Y10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -2314,10 +2316,10 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="Y11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2398,12 +2400,12 @@
         <v>0.4</v>
       </c>
       <c r="Y12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>52</v>
@@ -2482,10 +2484,10 @@
         <v>0.375</v>
       </c>
       <c r="Y13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2566,12 +2568,12 @@
         <v>0.2</v>
       </c>
       <c r="Y14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>54</v>
@@ -2650,10 +2652,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="Y15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2734,12 +2736,12 @@
         <v>0.3</v>
       </c>
       <c r="Y16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>56</v>
@@ -2818,10 +2820,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="Y17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2902,12 +2904,12 @@
         <v>0.5</v>
       </c>
       <c r="Y18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>58</v>
@@ -2986,10 +2988,10 @@
         <v>0.5</v>
       </c>
       <c r="Y19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3070,12 +3072,12 @@
         <v>0.3</v>
       </c>
       <c r="Y20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>60</v>
@@ -3154,10 +3156,10 @@
         <v>0.25</v>
       </c>
       <c r="Y21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3238,12 +3240,12 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="Y22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
         <v>62</v>
@@ -3322,10 +3324,10 @@
         <v>0.2</v>
       </c>
       <c r="Y23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3406,12 +3408,12 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="Y24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
         <v>64</v>
@@ -3490,12 +3492,12 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="Y25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
         <v>41</v>
@@ -3574,10 +3576,10 @@
         <v>0.5</v>
       </c>
       <c r="Y26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3658,10 +3660,10 @@
         <v>0.15</v>
       </c>
       <c r="Y27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3742,12 +3744,12 @@
         <v>0.75</v>
       </c>
       <c r="Y28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>44</v>
@@ -3826,12 +3828,12 @@
         <v>0.2</v>
       </c>
       <c r="Y29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
         <v>45</v>
@@ -3910,10 +3912,10 @@
         <v>0.15</v>
       </c>
       <c r="Y30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3994,10 +3996,10 @@
         <v>0.5</v>
       </c>
       <c r="Y31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4078,12 +4080,12 @@
         <v>0.625</v>
       </c>
       <c r="Y32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1">
         <v>48</v>
@@ -4162,10 +4164,10 @@
         <v>0.25</v>
       </c>
       <c r="Y33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -4246,12 +4248,12 @@
         <v>1.25</v>
       </c>
       <c r="Y34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>50</v>
@@ -4330,10 +4332,10 @@
         <v>0.45</v>
       </c>
       <c r="Y35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4414,12 +4416,12 @@
         <v>0.625</v>
       </c>
       <c r="Y36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
         <v>52</v>
@@ -4498,10 +4500,10 @@
         <v>0.3</v>
       </c>
       <c r="Y37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -4582,12 +4584,12 @@
         <v>0.2</v>
       </c>
       <c r="Y38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1">
         <v>54</v>
@@ -4666,10 +4668,10 @@
         <v>0.25</v>
       </c>
       <c r="Y39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -4750,12 +4752,12 @@
         <v>0.25</v>
       </c>
       <c r="Y40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>56</v>
@@ -4834,10 +4836,10 @@
         <v>0.25</v>
       </c>
       <c r="Y41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -4918,12 +4920,12 @@
         <v>0.25</v>
       </c>
       <c r="Y42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
         <v>58</v>
@@ -5002,10 +5004,10 @@
         <v>0.5</v>
       </c>
       <c r="Y43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -5086,12 +5088,12 @@
         <v>0.2</v>
       </c>
       <c r="Y44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1">
         <v>60</v>
@@ -5170,10 +5172,10 @@
         <v>0.375</v>
       </c>
       <c r="Y45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -5254,12 +5256,12 @@
         <v>0.375</v>
       </c>
       <c r="Y46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1">
         <v>62</v>
@@ -5338,10 +5340,10 @@
         <v>0.25</v>
       </c>
       <c r="Y47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -5422,12 +5424,12 @@
         <v>0.4</v>
       </c>
       <c r="Y48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1">
         <v>64</v>
@@ -5506,12 +5508,12 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="Y49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>41</v>
@@ -5590,10 +5592,10 @@
         <v>0.35</v>
       </c>
       <c r="Y50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -5674,10 +5676,10 @@
         <v>0.25</v>
       </c>
       <c r="Y51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -5758,12 +5760,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Y52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
         <v>44</v>
@@ -5842,12 +5844,12 @@
         <v>0.25</v>
       </c>
       <c r="Y53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
         <v>45</v>
@@ -5926,10 +5928,10 @@
         <v>0.3</v>
       </c>
       <c r="Y54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -6010,10 +6012,10 @@
         <v>0.3</v>
       </c>
       <c r="Y55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -6094,12 +6096,12 @@
         <v>0.45</v>
       </c>
       <c r="Y56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
         <v>48</v>
@@ -6178,10 +6180,10 @@
         <v>0.45</v>
       </c>
       <c r="Y57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -6262,12 +6264,12 @@
         <v>0.9</v>
       </c>
       <c r="Y58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1">
         <v>50</v>
@@ -6346,10 +6348,10 @@
         <v>0.25</v>
       </c>
       <c r="Y59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -6430,12 +6432,12 @@
         <v>0.35</v>
       </c>
       <c r="Y60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1">
         <v>52</v>
@@ -6514,10 +6516,10 @@
         <v>0.3</v>
       </c>
       <c r="Y61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -6598,12 +6600,12 @@
         <v>0.2</v>
       </c>
       <c r="Y62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1">
         <v>54</v>
@@ -6682,10 +6684,10 @@
         <v>0.25</v>
       </c>
       <c r="Y63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -6766,12 +6768,12 @@
         <v>0.6</v>
       </c>
       <c r="Y64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1">
         <v>56</v>
@@ -6850,10 +6852,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="Y65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -6934,12 +6936,12 @@
         <v>0.35</v>
       </c>
       <c r="Y66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1">
         <v>58</v>
@@ -7018,10 +7020,10 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="Y67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -7102,12 +7104,12 @@
         <v>0.4</v>
       </c>
       <c r="Y68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1">
         <v>60</v>
@@ -7186,10 +7188,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Y69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -7270,12 +7272,12 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="Y70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
         <v>62</v>
@@ -7354,10 +7356,10 @@
         <v>0.5</v>
       </c>
       <c r="Y71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -7438,12 +7440,12 @@
         <v>0.45</v>
       </c>
       <c r="Y72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1">
         <v>64</v>
@@ -7522,12 +7524,12 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="Y73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1">
         <v>41</v>
@@ -7606,10 +7608,10 @@
         <v>0.45</v>
       </c>
       <c r="Y74" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -7690,10 +7692,10 @@
         <v>0.25</v>
       </c>
       <c r="Y75" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -7774,12 +7776,12 @@
         <v>0.35</v>
       </c>
       <c r="Y76" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1">
         <v>44</v>
@@ -7858,12 +7860,12 @@
         <v>0.2</v>
       </c>
       <c r="Y77" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B78" s="1">
         <v>45</v>
@@ -7942,10 +7944,10 @@
         <v>0.25</v>
       </c>
       <c r="Y78" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -8026,10 +8028,10 @@
         <v>0.35</v>
       </c>
       <c r="Y79" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -8110,12 +8112,12 @@
         <v>0.5</v>
       </c>
       <c r="Y80" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1">
         <v>48</v>
@@ -8194,10 +8196,10 @@
         <v>0.25</v>
       </c>
       <c r="Y81" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -8278,12 +8280,12 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Y82" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B83" s="1">
         <v>50</v>
@@ -8362,10 +8364,10 @@
         <v>0.25</v>
       </c>
       <c r="Y83" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -8446,12 +8448,12 @@
         <v>0.35</v>
       </c>
       <c r="Y84" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B85" s="1">
         <v>52</v>
@@ -8530,10 +8532,10 @@
         <v>0.25</v>
       </c>
       <c r="Y85" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -8614,12 +8616,12 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="Y86" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B87" s="1">
         <v>54</v>
@@ -8698,10 +8700,10 @@
         <v>0.25</v>
       </c>
       <c r="Y87" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -8782,12 +8784,12 @@
         <v>0.35</v>
       </c>
       <c r="Y88" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B89" s="1">
         <v>56</v>
@@ -8866,10 +8868,10 @@
         <v>0.25</v>
       </c>
       <c r="Y89" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -8950,12 +8952,12 @@
         <v>0.35</v>
       </c>
       <c r="Y90" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1">
         <v>58</v>
@@ -9034,10 +9036,10 @@
         <v>0.25</v>
       </c>
       <c r="Y91" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -9118,12 +9120,12 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="Y92" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1">
         <v>60</v>
@@ -9202,10 +9204,10 @@
         <v>0.2</v>
       </c>
       <c r="Y93" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -9286,12 +9288,12 @@
         <v>0.25</v>
       </c>
       <c r="Y94" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1">
         <v>62</v>
@@ -9370,10 +9372,10 @@
         <v>0.35</v>
       </c>
       <c r="Y95" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -9454,12 +9456,12 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="Y96" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1">
         <v>64</v>
@@ -9538,7 +9540,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="Y97" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9558,45 +9560,45 @@
       <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>41</v>
@@ -9621,7 +9623,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -9675,9 +9677,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>44</v>
@@ -9702,9 +9704,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>45</v>
@@ -9729,7 +9731,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9756,7 +9758,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9783,9 +9785,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>48</v>
@@ -9810,7 +9812,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -9837,9 +9839,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -9864,7 +9866,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -9891,9 +9893,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>52</v>
@@ -9918,7 +9920,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -9945,9 +9947,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>54</v>
@@ -9972,7 +9974,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -9999,9 +10001,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>56</v>
@@ -10026,7 +10028,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -10053,9 +10055,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>58</v>
@@ -10080,7 +10082,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -10107,9 +10109,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>60</v>
@@ -10134,7 +10136,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -10161,9 +10163,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
         <v>62</v>
@@ -10188,7 +10190,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -10215,9 +10217,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
         <v>64</v>
@@ -10242,9 +10244,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
         <v>41</v>
@@ -10269,7 +10271,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -10296,7 +10298,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -10323,9 +10325,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>44</v>
@@ -10350,9 +10352,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
         <v>45</v>
@@ -10377,7 +10379,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -10404,7 +10406,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -10431,9 +10433,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1">
         <v>48</v>
@@ -10458,7 +10460,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -10485,9 +10487,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>50</v>
@@ -10512,7 +10514,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -10539,9 +10541,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
         <v>52</v>
@@ -10566,7 +10568,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -10593,9 +10595,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1">
         <v>54</v>
@@ -10620,7 +10622,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -10647,9 +10649,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>56</v>
@@ -10674,7 +10676,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -10701,9 +10703,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
         <v>58</v>
@@ -10728,7 +10730,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -10755,9 +10757,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1">
         <v>60</v>
@@ -10782,7 +10784,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -10809,9 +10811,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1">
         <v>62</v>
@@ -10836,7 +10838,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -10863,9 +10865,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1">
         <v>64</v>
@@ -10890,9 +10892,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>41</v>
@@ -10917,7 +10919,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -10944,7 +10946,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -10971,9 +10973,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
         <v>44</v>
@@ -10998,9 +11000,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
         <v>45</v>
@@ -11025,7 +11027,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -11052,7 +11054,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -11079,9 +11081,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
         <v>48</v>
@@ -11106,7 +11108,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -11133,9 +11135,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1">
         <v>50</v>
@@ -11160,7 +11162,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -11187,9 +11189,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1">
         <v>52</v>
@@ -11214,7 +11216,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -11241,9 +11243,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1">
         <v>54</v>
@@ -11268,7 +11270,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -11295,9 +11297,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1">
         <v>56</v>
@@ -11322,7 +11324,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -11349,9 +11351,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1">
         <v>58</v>
@@ -11376,7 +11378,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -11403,9 +11405,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1">
         <v>60</v>
@@ -11430,7 +11432,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -11457,9 +11459,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
         <v>62</v>
@@ -11484,7 +11486,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -11511,9 +11513,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1">
         <v>64</v>
@@ -11538,9 +11540,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1">
         <v>41</v>
@@ -11565,7 +11567,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -11592,7 +11594,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -11619,9 +11621,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1">
         <v>44</v>
@@ -11646,9 +11648,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B78" s="1">
         <v>45</v>
@@ -11673,7 +11675,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -11700,7 +11702,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -11727,9 +11729,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1">
         <v>48</v>
@@ -11754,7 +11756,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -11781,9 +11783,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B83" s="1">
         <v>50</v>
@@ -11808,7 +11810,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -11835,9 +11837,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B85" s="1">
         <v>52</v>
@@ -11862,7 +11864,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -11889,9 +11891,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B87" s="1">
         <v>54</v>
@@ -11916,7 +11918,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -11943,9 +11945,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B89" s="1">
         <v>56</v>
@@ -11970,7 +11972,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -11997,9 +11999,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1">
         <v>58</v>
@@ -12024,7 +12026,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -12051,9 +12053,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1">
         <v>60</v>
@@ -12078,7 +12080,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -12105,9 +12107,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1">
         <v>62</v>
@@ -12132,7 +12134,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -12159,9 +12161,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1">
         <v>64</v>
@@ -12186,9 +12188,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1">
         <v>41</v>
@@ -12213,7 +12215,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -12240,7 +12242,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -12267,9 +12269,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1">
         <v>44</v>
@@ -12294,9 +12296,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1">
         <v>45</v>
@@ -12321,7 +12323,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -12375,9 +12377,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1">
         <v>48</v>
@@ -12402,7 +12404,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -12429,9 +12431,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B107" s="1">
         <v>50</v>
@@ -12456,7 +12458,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -12483,9 +12485,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B109" s="1">
         <v>52</v>
@@ -12510,7 +12512,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -12537,9 +12539,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B111" s="1">
         <v>54</v>
@@ -12564,7 +12566,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -12591,9 +12593,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>56</v>
@@ -12618,7 +12620,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -12645,9 +12647,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B115" s="1">
         <v>58</v>
@@ -12672,7 +12674,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -12699,9 +12701,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1">
         <v>60</v>
@@ -12726,7 +12728,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -12753,9 +12755,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1">
         <v>62</v>
@@ -12780,7 +12782,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -12807,9 +12809,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B121" s="1">
         <v>64</v>
@@ -12834,9 +12836,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1">
         <v>41</v>
@@ -12861,7 +12863,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -12888,7 +12890,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -12915,9 +12917,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1">
         <v>44</v>
@@ -12942,9 +12944,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B126" s="1">
         <v>45</v>
@@ -12969,7 +12971,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -12996,7 +12998,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -13023,9 +13025,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B129" s="1">
         <v>48</v>
@@ -13050,7 +13052,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -13077,9 +13079,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1">
         <v>50</v>
@@ -13104,7 +13106,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -13131,9 +13133,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B133" s="1">
         <v>52</v>
@@ -13158,7 +13160,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -13185,9 +13187,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B135" s="1">
         <v>54</v>
@@ -13212,7 +13214,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
@@ -13239,9 +13241,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B137" s="1">
         <v>56</v>
@@ -13266,7 +13268,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -13293,9 +13295,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B139" s="1">
         <v>58</v>
@@ -13320,7 +13322,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
@@ -13347,9 +13349,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B141" s="1">
         <v>60</v>
@@ -13374,7 +13376,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -13401,9 +13403,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B143" s="1">
         <v>62</v>
@@ -13428,7 +13430,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
         <v>7</v>
       </c>
@@ -13455,9 +13457,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B145" s="1">
         <v>64</v>
@@ -13482,9 +13484,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B146" s="1">
         <v>41</v>
@@ -13509,7 +13511,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -13536,7 +13538,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
@@ -13563,9 +13565,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B149" s="1">
         <v>44</v>
@@ -13590,9 +13592,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B150" s="1">
         <v>45</v>
@@ -13617,7 +13619,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -13644,7 +13646,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
@@ -13671,9 +13673,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B153" s="1">
         <v>48</v>
@@ -13698,7 +13700,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -13725,9 +13727,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B155" s="1">
         <v>50</v>
@@ -13752,7 +13754,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
@@ -13779,9 +13781,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B157" s="1">
         <v>52</v>
@@ -13806,7 +13808,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -13833,9 +13835,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B159" s="1">
         <v>54</v>
@@ -13860,7 +13862,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
         <v>7</v>
       </c>
@@ -13887,9 +13889,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1">
         <v>56</v>
@@ -13914,7 +13916,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -13941,9 +13943,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B163" s="1">
         <v>58</v>
@@ -13968,7 +13970,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
         <v>7</v>
       </c>
@@ -13995,9 +13997,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B165" s="1">
         <v>60</v>
@@ -14022,7 +14024,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -14049,9 +14051,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B167" s="1">
         <v>62</v>
@@ -14076,7 +14078,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
         <v>7</v>
       </c>
@@ -14103,9 +14105,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B169" s="1">
         <v>64</v>
@@ -14130,9 +14132,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B170" s="1">
         <v>41</v>
@@ -14157,7 +14159,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
@@ -14184,7 +14186,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
@@ -14211,9 +14213,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B173" s="1">
         <v>44</v>
@@ -14238,9 +14240,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B174" s="1">
         <v>45</v>
@@ -14265,7 +14267,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
         <v>6</v>
       </c>
@@ -14292,7 +14294,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>7</v>
       </c>
@@ -14319,9 +14321,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B177" s="1">
         <v>48</v>
@@ -14346,7 +14348,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -14373,9 +14375,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B179" s="1">
         <v>50</v>
@@ -14400,7 +14402,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
         <v>7</v>
       </c>
@@ -14427,9 +14429,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B181" s="1">
         <v>52</v>
@@ -14454,7 +14456,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -14481,9 +14483,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B183" s="1">
         <v>54</v>
@@ -14508,7 +14510,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
         <v>7</v>
       </c>
@@ -14535,9 +14537,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B185" s="1">
         <v>56</v>
@@ -14562,7 +14564,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -14589,9 +14591,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B187" s="1">
         <v>58</v>
@@ -14616,7 +14618,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
         <v>7</v>
       </c>
@@ -14643,9 +14645,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B189" s="1">
         <v>60</v>
@@ -14670,7 +14672,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -14697,9 +14699,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B191" s="1">
         <v>62</v>
@@ -14724,7 +14726,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
         <v>7</v>
       </c>
@@ -14751,9 +14753,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B193" s="1">
         <v>64</v>
@@ -14791,37 +14793,37 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>41</v>
@@ -14836,7 +14838,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -14853,7 +14855,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -14870,9 +14872,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>44</v>
@@ -14884,15 +14886,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>45</v>
@@ -14907,7 +14909,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -14924,7 +14926,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -14941,9 +14943,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>48</v>
@@ -14955,13 +14957,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -14978,9 +14980,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -14992,13 +14994,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -15015,9 +15017,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>52</v>
@@ -15032,7 +15034,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -15049,9 +15051,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>54</v>
@@ -15066,7 +15068,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -15083,9 +15085,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>56</v>
@@ -15100,7 +15102,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -15114,15 +15116,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>58</v>
@@ -15134,13 +15136,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -15157,9 +15159,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>60</v>
@@ -15171,13 +15173,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -15194,9 +15196,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
         <v>62</v>
@@ -15208,13 +15210,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -15231,9 +15233,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
         <v>64</v>
@@ -15245,15 +15247,15 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7">
         <v>44727</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
         <v>41</v>
@@ -15265,13 +15267,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -15285,13 +15287,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F27" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -15305,15 +15307,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>44</v>
@@ -15325,15 +15327,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F29" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
         <v>45</v>
@@ -15348,7 +15350,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -15365,7 +15367,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -15382,9 +15384,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1">
         <v>48</v>
@@ -15399,7 +15401,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -15416,9 +15418,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>50</v>
@@ -15433,7 +15435,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -15450,9 +15452,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
         <v>52</v>
@@ -15464,13 +15466,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F37" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -15487,9 +15489,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1">
         <v>54</v>
@@ -15501,13 +15503,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F39" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -15524,9 +15526,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>56</v>
@@ -15541,7 +15543,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -15558,9 +15560,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
         <v>58</v>
@@ -15575,7 +15577,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -15592,9 +15594,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1">
         <v>60</v>
@@ -15606,13 +15608,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F45" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -15626,15 +15628,15 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F46" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1">
         <v>62</v>
@@ -15646,13 +15648,13 @@
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -15669,9 +15671,9 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1">
         <v>64</v>
@@ -15683,15 +15685,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F49" s="7">
         <v>44741</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>41</v>
@@ -15706,7 +15708,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -15723,7 +15725,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -15740,9 +15742,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
         <v>44</v>
@@ -15757,9 +15759,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
         <v>45</v>
@@ -15774,7 +15776,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -15791,7 +15793,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -15808,9 +15810,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
         <v>48</v>
@@ -15825,7 +15827,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -15842,9 +15844,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1">
         <v>50</v>
@@ -15859,7 +15861,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -15876,9 +15878,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1">
         <v>52</v>
@@ -15893,7 +15895,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -15910,9 +15912,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1">
         <v>54</v>
@@ -15927,7 +15929,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -15944,9 +15946,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1">
         <v>56</v>
@@ -15961,7 +15963,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -15978,9 +15980,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1">
         <v>58</v>
@@ -15995,7 +15997,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -16012,9 +16014,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1">
         <v>60</v>
@@ -16029,7 +16031,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -16046,9 +16048,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
         <v>62</v>
@@ -16063,7 +16065,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -16080,9 +16082,9 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1">
         <v>64</v>
@@ -16094,15 +16096,15 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F73" s="7">
         <v>44755</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1">
         <v>41</v>
@@ -16117,7 +16119,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -16134,7 +16136,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -16151,9 +16153,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1">
         <v>44</v>
@@ -16168,9 +16170,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B78" s="1">
         <v>45</v>
@@ -16185,7 +16187,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -16202,7 +16204,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -16219,9 +16221,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1">
         <v>48</v>
@@ -16236,7 +16238,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -16253,9 +16255,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B83" s="1">
         <v>50</v>
@@ -16270,7 +16272,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -16287,9 +16289,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B85" s="1">
         <v>52</v>
@@ -16304,7 +16306,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -16321,9 +16323,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B87" s="1">
         <v>54</v>
@@ -16338,7 +16340,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -16355,9 +16357,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B89" s="1">
         <v>56</v>
@@ -16372,7 +16374,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -16389,9 +16391,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1">
         <v>58</v>
@@ -16406,7 +16408,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -16423,9 +16425,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1">
         <v>60</v>
@@ -16440,7 +16442,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -16457,9 +16459,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1">
         <v>62</v>
@@ -16474,7 +16476,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -16491,9 +16493,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1">
         <v>64</v>
@@ -16508,9 +16510,9 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1">
         <v>41</v>
@@ -16525,7 +16527,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -16542,7 +16544,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -16559,9 +16561,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1">
         <v>44</v>
@@ -16576,9 +16578,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1">
         <v>45</v>
@@ -16593,7 +16595,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -16610,7 +16612,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -16627,9 +16629,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1">
         <v>48</v>
@@ -16644,7 +16646,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -16661,9 +16663,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B107" s="1">
         <v>50</v>
@@ -16678,7 +16680,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -16695,9 +16697,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B109" s="1">
         <v>52</v>
@@ -16712,7 +16714,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -16729,9 +16731,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B111" s="1">
         <v>54</v>
@@ -16746,7 +16748,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -16763,9 +16765,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>56</v>
@@ -16780,7 +16782,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -16797,9 +16799,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B115" s="1">
         <v>58</v>
@@ -16814,7 +16816,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -16831,9 +16833,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1">
         <v>60</v>
@@ -16848,7 +16850,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -16865,9 +16867,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1">
         <v>62</v>
@@ -16882,7 +16884,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -16899,9 +16901,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B121" s="1">
         <v>64</v>
@@ -16916,9 +16918,9 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1">
         <v>41</v>
@@ -16933,7 +16935,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -16950,7 +16952,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -16967,9 +16969,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1">
         <v>44</v>
@@ -16984,9 +16986,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B126" s="1">
         <v>45</v>
@@ -17001,7 +17003,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -17015,13 +17017,13 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F127" s="7">
         <v>44796</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -17038,9 +17040,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B129" s="1">
         <v>48</v>
@@ -17055,7 +17057,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -17072,9 +17074,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1">
         <v>50</v>
@@ -17089,7 +17091,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -17106,9 +17108,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B133" s="1">
         <v>52</v>
@@ -17123,7 +17125,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -17140,9 +17142,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B135" s="1">
         <v>54</v>
@@ -17157,7 +17159,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
@@ -17174,9 +17176,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B137" s="1">
         <v>56</v>
@@ -17191,7 +17193,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -17208,9 +17210,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B139" s="1">
         <v>58</v>
@@ -17225,7 +17227,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
@@ -17242,9 +17244,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B141" s="1">
         <v>60</v>
@@ -17259,7 +17261,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -17276,9 +17278,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B143" s="1">
         <v>62</v>
@@ -17293,7 +17295,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>7</v>
       </c>
@@ -17310,9 +17312,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B145" s="1">
         <v>64</v>
@@ -17327,9 +17329,9 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B146" s="1">
         <v>41</v>
@@ -17344,7 +17346,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -17361,7 +17363,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
@@ -17378,9 +17380,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B149" s="1">
         <v>44</v>
@@ -17395,9 +17397,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B150" s="1">
         <v>45</v>
@@ -17412,7 +17414,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -17429,7 +17431,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
@@ -17446,9 +17448,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B153" s="1">
         <v>48</v>
@@ -17463,7 +17465,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -17480,9 +17482,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B155" s="1">
         <v>50</v>
@@ -17497,7 +17499,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
@@ -17514,9 +17516,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B157" s="1">
         <v>52</v>
@@ -17531,7 +17533,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -17548,9 +17550,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B159" s="1">
         <v>54</v>
@@ -17565,7 +17567,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
         <v>7</v>
       </c>
@@ -17582,9 +17584,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1">
         <v>56</v>
@@ -17599,7 +17601,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -17616,9 +17618,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B163" s="1">
         <v>58</v>
@@ -17633,7 +17635,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
         <v>7</v>
       </c>
@@ -17650,9 +17652,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B165" s="1">
         <v>60</v>
@@ -17667,7 +17669,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -17684,9 +17686,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B167" s="1">
         <v>62</v>
@@ -17701,7 +17703,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
         <v>7</v>
       </c>
@@ -17718,9 +17720,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B169" s="1">
         <v>64</v>
@@ -17735,9 +17737,9 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B170" s="1">
         <v>41</v>
@@ -17752,7 +17754,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
@@ -17769,7 +17771,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
@@ -17786,9 +17788,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B173" s="1">
         <v>44</v>
@@ -17803,9 +17805,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B174" s="1">
         <v>45</v>
@@ -17820,7 +17822,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
         <v>6</v>
       </c>
@@ -17837,7 +17839,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>7</v>
       </c>
@@ -17854,9 +17856,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B177" s="1">
         <v>48</v>
@@ -17874,7 +17876,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -17891,9 +17893,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B179" s="1">
         <v>50</v>
@@ -17911,7 +17913,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>7</v>
       </c>
@@ -17928,9 +17930,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B181" s="1">
         <v>52</v>
@@ -17945,7 +17947,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -17962,9 +17964,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B183" s="1">
         <v>54</v>
@@ -17979,7 +17981,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
         <v>7</v>
       </c>
@@ -17996,9 +17998,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B185" s="1">
         <v>56</v>
@@ -18013,7 +18015,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -18030,9 +18032,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B187" s="1">
         <v>58</v>
@@ -18047,7 +18049,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
         <v>7</v>
       </c>
@@ -18067,9 +18069,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B189" s="1">
         <v>60</v>
@@ -18087,7 +18089,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -18104,9 +18106,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B191" s="1">
         <v>62</v>
@@ -18121,7 +18123,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>7</v>
       </c>
@@ -18138,9 +18140,9 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B193" s="1">
         <v>64</v>
